--- a/docs/v1/Minuta de Reuniones.xlsx
+++ b/docs/v1/Minuta de Reuniones.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
   <si>
     <t>Actividad de Control</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Minuta Reunión Avance Proyecto, N°4</t>
+  </si>
+  <si>
+    <t>Mejorar los Insert de las tablas, agregar nuevas filas de datos</t>
+  </si>
+  <si>
+    <t>Buscar una imagen de profile por defecto png / public/profile/default.png</t>
   </si>
 </sst>
 </file>
@@ -392,17 +398,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,11 +419,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,14 +829,14 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -865,14 +871,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -935,14 +941,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -950,15 +956,15 @@
       <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -970,11 +976,11 @@
         <v>42</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -986,11 +992,11 @@
         <v>41</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1002,11 +1008,11 @@
         <v>40</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1018,11 +1024,11 @@
         <v>39</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1032,9 +1038,9 @@
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1043,14 +1049,14 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1111,14 +1117,14 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1126,10 +1132,10 @@
       <c r="C27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="27" t="s">
         <v>29</v>
       </c>
@@ -1148,10 +1154,10 @@
         <v>31</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="3">
         <v>45130</v>
       </c>
@@ -1162,14 +1168,14 @@
       <c r="C29" s="11">
         <v>2</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="3">
         <v>45130</v>
       </c>
@@ -1180,14 +1186,14 @@
       <c r="C30" s="11">
         <v>3</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="3">
         <v>45130</v>
       </c>
@@ -1198,10 +1204,10 @@
       <c r="C31" s="11">
         <v>4</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="2"/>
       <c r="I31" s="14"/>
     </row>
@@ -1211,46 +1217,46 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="16"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1265,18 +1271,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C34:H36"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="D14:E14"/>
@@ -1293,11 +1292,18 @@
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C34:H36"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1339,14 +1345,14 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1381,14 +1387,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1451,14 +1457,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1466,15 +1472,15 @@
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1486,11 +1492,11 @@
         <v>42</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1502,11 +1508,11 @@
         <v>40</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1518,11 +1524,11 @@
         <v>39</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1534,11 +1540,11 @@
         <v>44</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1548,9 +1554,9 @@
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1559,14 +1565,14 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1627,14 +1633,14 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1642,10 +1648,10 @@
       <c r="C27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="27" t="s">
         <v>29</v>
       </c>
@@ -1664,10 +1670,10 @@
         <v>47</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="3">
         <v>45132</v>
       </c>
@@ -1678,10 +1684,10 @@
       <c r="C29" s="19">
         <v>2</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="3"/>
       <c r="I29" s="14"/>
     </row>
@@ -1690,10 +1696,10 @@
       <c r="C30" s="19">
         <v>3</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="3"/>
       <c r="I30" s="14"/>
     </row>
@@ -1702,10 +1708,10 @@
       <c r="C31" s="19">
         <v>4</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="2"/>
       <c r="I31" s="14"/>
     </row>
@@ -1715,46 +1721,1036 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="16"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H36"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45171</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45171</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="19">
+        <v>4</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="19">
+        <v>5</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="19">
+        <v>2</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="19">
+        <v>3</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="19">
+        <v>4</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="3">
+        <v>45179</v>
+      </c>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="19">
+        <v>2</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="19">
+        <v>3</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="19">
+        <v>4</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="C34" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H36"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45597</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45597</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="20">
+        <v>2</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="20">
+        <v>3</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="20">
+        <v>4</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="20">
+        <v>5</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="20">
+        <v>2</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="20">
+        <v>3</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="20">
+        <v>4</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="20">
+        <v>2</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="20">
+        <v>3</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="20">
+        <v>4</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1805,964 +2801,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45171</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45171</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="19">
-        <v>2</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="19">
-        <v>3</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="19">
-        <v>4</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="19">
-        <v>5</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="19">
-        <v>1</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="19">
-        <v>2</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="19">
-        <v>3</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="19">
-        <v>4</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="19">
-        <v>1</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="3">
-        <v>45179</v>
-      </c>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="19">
-        <v>2</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="19">
-        <v>3</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="19">
-        <v>4</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H36"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="20">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="20">
-        <v>2</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="20">
-        <v>3</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="20">
-        <v>4</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="20">
-        <v>5</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="20">
-        <v>2</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="20">
-        <v>3</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="20">
-        <v>4</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="20">
-        <v>1</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="20">
-        <v>2</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="20">
-        <v>3</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="20">
-        <v>4</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H36"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>